--- a/data/excel_files_reduced_clean/test_excel_8_reduced_clean.xlsx
+++ b/data/excel_files_reduced_clean/test_excel_8_reduced_clean.xlsx
@@ -2,34 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,36 +35,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -78,20 +47,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -457,68 +417,68 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>time_spent</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>platform</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>interests</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>demographics</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>profession</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>income</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>indebt</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>isHomeOwner</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Owns_Car</t>
         </is>
@@ -533,32 +493,32 @@
           <t>If_Weight_Or_Size</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Age Category</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Average Time Spent for Gender</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Interest Count</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Platform Popularity</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Gender code</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Sumifs</t>
         </is>
@@ -741,63 +701,59 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col width="162.83203125" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="17.83203125" bestFit="1" customWidth="1" min="10" max="10"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Movie Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Year of Release</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Watch Time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Movie Rating</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Meatscore of movie</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Votes</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Gross</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Lookup from Sheet1</t>
         </is>
@@ -878,6 +834,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>